--- a/player-analysis/server/customer_model_data/predicted_future_value.csv.xlsx
+++ b/player-analysis/server/customer_model_data/predicted_future_value.csv.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Divakar\Angular\spec\analysis_reserach\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prototype_login\customer_model_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -393,13 +393,13 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -416,7 +416,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>42455</v>
+        <v>20161005</v>
       </c>
       <c r="B2" s="1">
         <v>13.15</v>
@@ -427,7 +427,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>42469</v>
+        <v>20161006</v>
       </c>
       <c r="B3" s="1">
         <v>18.95</v>
@@ -438,7 +438,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>42483</v>
+        <v>20161007</v>
       </c>
       <c r="B4" s="1">
         <v>18.63</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>42483</v>
+        <v>20161008</v>
       </c>
       <c r="B5" s="1">
         <v>18.63</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>42483</v>
+        <v>20161009</v>
       </c>
       <c r="B6" s="1">
         <v>18.63</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>42483</v>
+        <v>20161010</v>
       </c>
       <c r="B7" s="1">
         <v>18.63</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>42483</v>
+        <v>20161003</v>
       </c>
       <c r="B8" s="1">
         <v>18.63</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>42483</v>
+        <v>20161001</v>
       </c>
       <c r="B9" s="1">
         <v>18.63</v>
